--- a/res/testcase/statisticalAnalysis/businessmanReport.xlsx
+++ b/res/testcase/statisticalAnalysis/businessmanReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
   <si>
     <t>动作</t>
   </si>
@@ -201,6 +201,9 @@
     <t>勾选checkbox的元素，参数ON,OFF(ON为勾选，OFF取消勾选)</t>
   </si>
   <si>
+    <t>勾选checkbox链状</t>
+  </si>
+  <si>
     <t>执行JS语句</t>
   </si>
   <si>
@@ -303,13 +306,16 @@
     <t>BusinessmanReportPage.商家报表</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>进入新Tab</t>
   </si>
   <si>
     <t>停车场运营管理系统</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t>截图</t>
@@ -318,37 +324,34 @@
     <t>1通道进出报表界面</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>BusinessmanReportPage.记录列表</t>
+  </si>
+  <si>
+    <t>$售卖管理.商家名称</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>BusinessmanReportPage.记录列表</t>
-  </si>
-  <si>
-    <t>未结算</t>
+    <t>2筛选通道进出报表界面</t>
+  </si>
+  <si>
+    <t>点击导出</t>
+  </si>
+  <si>
+    <t>BusinessmanReportPage.导出</t>
+  </si>
+  <si>
+    <t>点击确认</t>
+  </si>
+  <si>
+    <t>BusinessmanReportPage.确认-提示</t>
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>2筛选通道进出报表界面</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>点击导出</t>
-  </si>
-  <si>
-    <t>BusinessmanReportPage.导出</t>
-  </si>
-  <si>
-    <t>点击确认</t>
-  </si>
-  <si>
-    <t>BusinessmanReportPage.确认-提示</t>
   </si>
   <si>
     <t>BusinessmanReportPage.操作成功-提示</t>
@@ -389,52 +392,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,13 +425,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -478,9 +439,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,7 +507,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -510,28 +522,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -548,187 +551,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,32 +773,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,13 +815,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,11 +845,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,10 +878,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -887,133 +890,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,7 +1115,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Actions"/>
-      <sheetName val="001_filterComeAndOutReport"/>
+      <sheetName val="001_checkComeAndOutReport"/>
       <sheetName val="002_exportComeAndOutReport"/>
     </sheetNames>
     <sheetDataSet>
@@ -1411,10 +1414,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1672,7 +1675,7 @@
         <v>60</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1680,84 +1683,92 @@
         <v>61</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="8" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="B35" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="B35" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
         <v>67</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="8" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="B43" s="8" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1773,7 +1784,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1788,124 +1799,126 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="32" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1940,99 +1953,99 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>106</v>
@@ -2047,7 +2060,7 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>108</v>
@@ -2062,34 +2075,34 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/statisticalAnalysis/businessmanReport.xlsx
+++ b/res/testcase/statisticalAnalysis/businessmanReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="125">
   <si>
     <t>动作</t>
   </si>
@@ -327,13 +327,49 @@
     <t>6</t>
   </si>
   <si>
+    <t>选择停车场下拉框</t>
+  </si>
+  <si>
+    <t>BusinessmanReportPage.选择停车场下拉框</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>选择停车场</t>
+  </si>
+  <si>
+    <t>BusinessmanReportPage.选择停车场</t>
+  </si>
+  <si>
+    <t>$全局变量.筛选数据停车场名称;off</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>$全局变量.停车场名称;on</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>点击搜索按钮</t>
+  </si>
+  <si>
+    <t>BusinessmanReportPage.搜索按钮</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>BusinessmanReportPage.记录列表</t>
   </si>
   <si>
     <t>$售卖管理.商家名称</t>
   </si>
   <si>
-    <t>7</t>
+    <t>11</t>
   </si>
   <si>
     <t>2筛选通道进出报表界面</t>
@@ -351,16 +387,10 @@
     <t>BusinessmanReportPage.确认-提示</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>BusinessmanReportPage.操作成功-提示</t>
   </si>
   <si>
     <t>操作成功，请打开右上角下载中心界面进行下载</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
   <si>
     <t>2导出成功界面</t>
@@ -371,10 +401,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -392,6 +422,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -402,59 +470,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,38 +492,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -522,8 +514,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,6 +536,35 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -551,187 +581,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,48 +803,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -826,6 +814,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,6 +867,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -878,10 +908,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,37 +920,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -929,94 +956,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1416,8 +1446,8 @@
   <sheetPr/>
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1781,13 +1811,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="41.375" style="3" customWidth="1"/>
@@ -1889,41 +1919,108 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="32" customHeight="1" spans="1:5">
+    <row r="7" s="4" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="32" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>105</v>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C5 C6 C7 C8 C2:C4 C9:C1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>[1]Actions!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C5 C6 C7 C9 C10 C11 C12 C2:C4 C13:C1048576">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -1936,10 +2033,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2048,13 +2145,13 @@
         <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2063,51 +2160,69 @@
         <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>114</v>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C5 C6 C7 C8 C9 C10 C11 C2:C4">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+      <formula1>[1]Actions!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C5 C6 C8 C9 C10 C11 C12 C2:C4">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
   </dataValidations>
